--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9be39b7bfd81c5fc/ドキュメント/就活/HITACHI/AM62x/learning-notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D09FB7D-990D-41EF-AE56-F13674718988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{9D09FB7D-990D-41EF-AE56-F13674718988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C07444-7F2F-4B06-A8FF-39B2B635B31B}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="13126" windowHeight="13763" xr2:uid="{9AC57BFF-D02E-4434-82FC-54980F155723}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{9AC57BFF-D02E-4434-82FC-54980F155723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -168,19 +168,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -190,12 +192,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="2"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -299,54 +325,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B540801D-9B9C-4330-BDED-8752168AFF8E}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -695,159 +848,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="13"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
+      <c r="G6" s="16"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="4"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -856,5 +988,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>